--- a/ATV/Clave_numerica.xlsx
+++ b/ATV/Clave_numerica.xlsx
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17835" windowHeight="8640"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17835" windowHeight="8640" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Chart1" sheetId="2" r:id="rId1"/>
+    <sheet name="Chart2" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -55,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>pais</t>
   </si>
@@ -95,11 +97,57 @@
   <si>
     <t>dar los doce digitos</t>
   </si>
+  <si>
+    <t>iv</t>
+  </si>
+  <si>
+    <t>puni</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>total serv gravado</t>
+  </si>
+  <si>
+    <t>total serv exento</t>
+  </si>
+  <si>
+    <t>total merc grav</t>
+  </si>
+  <si>
+    <t>total merc exenta</t>
+  </si>
+  <si>
+    <t>total gravado</t>
+  </si>
+  <si>
+    <t>total exento</t>
+  </si>
+  <si>
+    <t>total venta</t>
+  </si>
+  <si>
+    <t>total desc</t>
+  </si>
+  <si>
+    <t>total venta neta</t>
+  </si>
+  <si>
+    <t>totalImpuesto</t>
+  </si>
+  <si>
+    <t>total comprobante</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00000"/>
+  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -212,11 +260,15 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -226,19 +278,18 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -258,6 +309,1986 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AZ$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>puni</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$BA$3:$BD$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>iv</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$BA$4:$BD$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>287.61061946902657</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="#,##0.00">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3A4F-48DE-9BC7-F524D207745C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AZ$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.212,38938</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$BA$3:$BD$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>iv</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$BA$5:$BD$5</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0.1150442</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="#,##0.00000">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3A4F-48DE-9BC7-F524D207745C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AZ$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$BA$3:$BD$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>iv</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$BA$6:$BD$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3A4F-48DE-9BC7-F524D207745C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="170226799"/>
+        <c:axId val="188855871"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="170226799"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="188855871"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="188855871"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="170226799"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CR"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AZ$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>puni</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$BA$3:$BD$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>iv</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$BA$4:$BD$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>287.61061946902657</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="#,##0.00">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B732-4FE5-BC0F-FE69311C38C4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AZ$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.212,38938</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$BA$3:$BD$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>iv</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$BA$5:$BD$5</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0.1150442</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="#,##0.00000">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B732-4FE5-BC0F-FE69311C38C4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AZ$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$BA$3:$BD$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>iv</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$BA$6:$BD$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B732-4FE5-BC0F-FE69311C38C4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="306007503"/>
+        <c:axId val="306004591"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="306007503"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="306004591"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="306004591"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="306007503"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CR"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="107" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="107" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8670421" cy="6302523"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8670421" cy="6302523"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -523,10 +2554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AX5"/>
+  <dimension ref="A1:BD24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="BA25" sqref="BA25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -536,236 +2567,238 @@
     <col min="10" max="41" width="3" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="2.7109375" customWidth="1"/>
     <col min="43" max="50" width="3" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="22.42578125" customWidth="1"/>
     <col min="53" max="53" width="25.85546875" customWidth="1"/>
+    <col min="55" max="55" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A1" s="6">
+    <row r="1" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A1" s="2">
         <v>5</v>
       </c>
-      <c r="B1" s="6">
+      <c r="B1" s="2">
         <v>0</v>
       </c>
-      <c r="C1" s="6">
+      <c r="C1" s="2">
         <v>6</v>
       </c>
-      <c r="D1" s="7">
+      <c r="D1" s="3">
         <v>2</v>
       </c>
-      <c r="E1" s="7">
+      <c r="E1" s="3">
         <v>6</v>
       </c>
-      <c r="F1" s="8">
+      <c r="F1" s="4">
         <v>0</v>
       </c>
-      <c r="G1" s="8">
+      <c r="G1" s="4">
         <v>6</v>
       </c>
-      <c r="H1" s="5">
+      <c r="H1" s="1">
         <v>1</v>
       </c>
-      <c r="I1" s="5">
+      <c r="I1" s="1">
         <v>8</v>
       </c>
-      <c r="J1" s="6">
+      <c r="J1" s="2">
         <v>0</v>
       </c>
-      <c r="K1" s="6">
+      <c r="K1" s="2">
         <v>0</v>
       </c>
-      <c r="L1" s="6">
+      <c r="L1" s="2">
         <v>0</v>
       </c>
-      <c r="M1" s="6">
+      <c r="M1" s="2">
         <v>1</v>
       </c>
-      <c r="N1" s="6">
+      <c r="N1" s="2">
         <v>1</v>
       </c>
-      <c r="O1" s="6">
+      <c r="O1" s="2">
         <v>1</v>
       </c>
-      <c r="P1" s="6">
+      <c r="P1" s="2">
         <v>8</v>
       </c>
-      <c r="Q1" s="6">
+      <c r="Q1" s="2">
         <v>7</v>
       </c>
-      <c r="R1" s="6">
+      <c r="R1" s="2">
         <v>0</v>
       </c>
-      <c r="S1" s="6">
+      <c r="S1" s="2">
         <v>7</v>
       </c>
-      <c r="T1" s="6">
+      <c r="T1" s="2">
         <v>6</v>
       </c>
-      <c r="U1" s="6">
+      <c r="U1" s="2">
         <v>3</v>
       </c>
-      <c r="V1" s="7">
+      <c r="V1" s="3">
         <v>0</v>
       </c>
-      <c r="W1" s="7">
+      <c r="W1" s="3">
         <v>0</v>
       </c>
-      <c r="X1" s="7">
+      <c r="X1" s="3">
         <v>1</v>
       </c>
-      <c r="Y1" s="8">
+      <c r="Y1" s="4">
         <v>0</v>
       </c>
-      <c r="Z1" s="8">
+      <c r="Z1" s="4">
         <v>0</v>
       </c>
-      <c r="AA1" s="8">
+      <c r="AA1" s="4">
         <v>0</v>
       </c>
-      <c r="AB1" s="8">
+      <c r="AB1" s="4">
         <v>0</v>
       </c>
-      <c r="AC1" s="8">
+      <c r="AC1" s="4">
         <v>1</v>
       </c>
-      <c r="AD1" s="5">
+      <c r="AD1" s="1">
         <v>0</v>
       </c>
-      <c r="AE1" s="5">
+      <c r="AE1" s="1">
         <v>1</v>
       </c>
-      <c r="AF1" s="9">
+      <c r="AF1" s="5">
         <v>0</v>
       </c>
-      <c r="AG1" s="9">
+      <c r="AG1" s="5">
         <v>0</v>
       </c>
-      <c r="AH1" s="9">
+      <c r="AH1" s="5">
         <v>0</v>
       </c>
-      <c r="AI1" s="9">
+      <c r="AI1" s="5">
         <v>0</v>
       </c>
-      <c r="AJ1" s="9">
+      <c r="AJ1" s="5">
         <v>0</v>
       </c>
-      <c r="AK1" s="9">
+      <c r="AK1" s="5">
         <v>0</v>
       </c>
-      <c r="AL1" s="9">
+      <c r="AL1" s="5">
         <v>0</v>
       </c>
-      <c r="AM1" s="9">
+      <c r="AM1" s="5">
         <v>0</v>
       </c>
-      <c r="AN1" s="9">
+      <c r="AN1" s="5">
         <v>0</v>
       </c>
-      <c r="AO1" s="9">
+      <c r="AO1" s="5">
         <v>1</v>
       </c>
-      <c r="AP1" s="11">
+      <c r="AP1" s="6">
         <v>1</v>
       </c>
-      <c r="AQ1" s="13">
+      <c r="AQ1" s="7">
         <v>9</v>
       </c>
-      <c r="AR1" s="13">
+      <c r="AR1" s="7">
         <v>9</v>
       </c>
-      <c r="AS1" s="13">
+      <c r="AS1" s="7">
         <v>9</v>
       </c>
-      <c r="AT1" s="13">
+      <c r="AT1" s="7">
         <v>9</v>
       </c>
-      <c r="AU1" s="13">
+      <c r="AU1" s="7">
         <v>9</v>
       </c>
-      <c r="AV1" s="13">
+      <c r="AV1" s="7">
         <v>7</v>
       </c>
-      <c r="AW1" s="13">
+      <c r="AW1" s="7">
         <v>9</v>
       </c>
-      <c r="AX1" s="13">
+      <c r="AX1" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="2" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="3" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="4" t="s">
+      <c r="G2" s="9"/>
+      <c r="H2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="1" t="s">
+      <c r="I2" s="10"/>
+      <c r="J2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="2" t="s">
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="3" t="s">
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3"/>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="3"/>
-      <c r="AD2" s="4" t="s">
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="9"/>
+      <c r="AC2" s="9"/>
+      <c r="AD2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="AE2" s="4"/>
-      <c r="AF2" s="10" t="s">
+      <c r="AE2" s="10"/>
+      <c r="AF2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="AG2" s="3"/>
-      <c r="AH2" s="3"/>
-      <c r="AI2" s="3"/>
-      <c r="AJ2" s="3"/>
-      <c r="AK2" s="3"/>
-      <c r="AL2" s="3"/>
-      <c r="AM2" s="3"/>
-      <c r="AN2" s="3"/>
-      <c r="AO2" s="3"/>
-      <c r="AP2" s="5" t="s">
+      <c r="AG2" s="9"/>
+      <c r="AH2" s="9"/>
+      <c r="AI2" s="9"/>
+      <c r="AJ2" s="9"/>
+      <c r="AK2" s="9"/>
+      <c r="AL2" s="9"/>
+      <c r="AM2" s="9"/>
+      <c r="AN2" s="9"/>
+      <c r="AO2" s="9"/>
+      <c r="AP2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="AQ2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="AR2" s="1"/>
-      <c r="AS2" s="1"/>
-      <c r="AT2" s="1"/>
-      <c r="AU2" s="1"/>
-      <c r="AV2" s="1"/>
-      <c r="AW2" s="1"/>
-      <c r="AX2" s="1"/>
+      <c r="AR2" s="13"/>
+      <c r="AS2" s="13"/>
+      <c r="AT2" s="13"/>
+      <c r="AU2" s="13"/>
+      <c r="AV2" s="13"/>
+      <c r="AW2" s="13"/>
+      <c r="AX2" s="13"/>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -916,31 +2949,166 @@
       <c r="AX3">
         <v>50</v>
       </c>
+      <c r="BA3" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:56" x14ac:dyDescent="0.25">
       <c r="L4" t="s">
         <v>11</v>
       </c>
+      <c r="AZ4" t="s">
+        <v>14</v>
+      </c>
+      <c r="BA4">
+        <v>0.13</v>
+      </c>
+      <c r="BB4">
+        <f>AZ5*BA4</f>
+        <v>287.61061946902657</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>15</v>
+      </c>
+      <c r="BD4" s="14">
+        <f>AZ5+BB4</f>
+        <v>2500</v>
+      </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:56" x14ac:dyDescent="0.25">
       <c r="L5" t="s">
         <v>12</v>
+      </c>
+      <c r="AZ5" s="16">
+        <f>BC5/1.13</f>
+        <v>2212.3893805309735</v>
+      </c>
+      <c r="BA5">
+        <v>0.1150442</v>
+      </c>
+      <c r="BB5" s="14"/>
+      <c r="BC5" s="16">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="AZ6" s="15"/>
+    </row>
+    <row r="9" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="AZ9" s="14"/>
+      <c r="BA9" s="14"/>
+    </row>
+    <row r="10" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="AZ10" t="s">
+        <v>16</v>
+      </c>
+      <c r="BA10" s="16">
+        <v>0</v>
+      </c>
+      <c r="BB10" s="16"/>
+    </row>
+    <row r="11" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="AZ11" t="s">
+        <v>17</v>
+      </c>
+      <c r="BA11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="AZ12" t="s">
+        <v>18</v>
+      </c>
+      <c r="BA12" s="16">
+        <f>AZ5</f>
+        <v>2212.3893805309735</v>
+      </c>
+    </row>
+    <row r="13" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="AZ13" t="s">
+        <v>19</v>
+      </c>
+      <c r="BA13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="AZ14" t="s">
+        <v>20</v>
+      </c>
+      <c r="BA14" s="16">
+        <f>BA10+BA12</f>
+        <v>2212.3893805309735</v>
+      </c>
+    </row>
+    <row r="15" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="AZ15" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="BA15">
+        <f>BA11+BA13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="AZ16" t="s">
+        <v>22</v>
+      </c>
+      <c r="BA16" s="16">
+        <f>BA14+BA15</f>
+        <v>2212.3893805309735</v>
+      </c>
+    </row>
+    <row r="18" spans="52:53" x14ac:dyDescent="0.25">
+      <c r="AZ18" t="s">
+        <v>23</v>
+      </c>
+      <c r="BA18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="52:53" x14ac:dyDescent="0.25">
+      <c r="AZ20" t="s">
+        <v>24</v>
+      </c>
+      <c r="BA20" s="16">
+        <f>BA16-BA18</f>
+        <v>2212.3893805309735</v>
+      </c>
+    </row>
+    <row r="22" spans="52:53" x14ac:dyDescent="0.25">
+      <c r="AZ22" t="s">
+        <v>25</v>
+      </c>
+      <c r="BA22">
+        <f>BA20*0.13</f>
+        <v>287.61061946902657</v>
+      </c>
+    </row>
+    <row r="24" spans="52:53" x14ac:dyDescent="0.25">
+      <c r="AZ24" t="s">
+        <v>26</v>
+      </c>
+      <c r="BA24" s="16">
+        <f>BA20+BA22</f>
+        <v>2500</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:U2"/>
     <mergeCell ref="V2:X2"/>
     <mergeCell ref="Y2:AC2"/>
     <mergeCell ref="AD2:AE2"/>
     <mergeCell ref="AF2:AO2"/>
     <mergeCell ref="AQ2:AX2"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:U2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/ATV/Clave_numerica.xlsx
+++ b/ATV/Clave_numerica.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17835" windowHeight="8640" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17835" windowHeight="8550" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="2" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>pais</t>
   </si>
@@ -98,46 +98,7 @@
     <t>dar los doce digitos</t>
   </si>
   <si>
-    <t>iv</t>
-  </si>
-  <si>
-    <t>puni</t>
-  </si>
-  <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>total serv gravado</t>
-  </si>
-  <si>
-    <t>total serv exento</t>
-  </si>
-  <si>
-    <t>total merc grav</t>
-  </si>
-  <si>
-    <t>total merc exenta</t>
-  </si>
-  <si>
-    <t>total gravado</t>
-  </si>
-  <si>
-    <t>total exento</t>
-  </si>
-  <si>
-    <t>total venta</t>
-  </si>
-  <si>
-    <t>total desc</t>
-  </si>
-  <si>
-    <t>total venta neta</t>
-  </si>
-  <si>
-    <t>totalImpuesto</t>
-  </si>
-  <si>
-    <t>total comprobante</t>
+    <t>"506 141018 000111870763 001 00001 01 0000000013 2 47317706"</t>
   </si>
 </sst>
 </file>
@@ -269,6 +230,9 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -287,9 +251,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -326,7 +287,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -372,7 +332,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>puni</c:v>
+                  <c:v>"506 141018 000111870763 001 00001 01 0000000013 2 47317706"</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -388,15 +348,13 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Sheet1!$BA$3:$BD$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>iv</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -404,18 +362,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>287.61061946902657</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="#,##0.00">
-                  <c:v>2500</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -433,9 +379,6 @@
               <c:f>Sheet1!$AZ$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2.212,38938</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -450,15 +393,13 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Sheet1!$BA$3:$BD$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>iv</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -466,12 +407,6 @@
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="4"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>0.1150442</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="#,##0.00000">
-                  <c:v>2500</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -503,15 +438,13 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Sheet1!$BA$3:$BD$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>iv</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -658,7 +591,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -735,7 +667,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -781,7 +712,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>puni</c:v>
+                  <c:v>"506 141018 000111870763 001 00001 01 0000000013 2 47317706"</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -797,15 +728,13 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Sheet1!$BA$3:$BD$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>iv</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -813,18 +742,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>287.61061946902657</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="#,##0.00">
-                  <c:v>2500</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -842,9 +759,6 @@
               <c:f>Sheet1!$AZ$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2.212,38938</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -859,15 +773,13 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Sheet1!$BA$3:$BD$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>iv</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -875,12 +787,6 @@
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="4"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>0.1150442</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="#,##0.00000">
-                  <c:v>2500</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -912,15 +818,13 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Sheet1!$BA$3:$BD$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>iv</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1067,7 +971,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2556,8 +2459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BD24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="BA25" sqref="BA25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AQ12" sqref="AQ12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2565,9 +2468,9 @@
     <col min="1" max="1" width="3.42578125" customWidth="1"/>
     <col min="2" max="9" width="2" bestFit="1" customWidth="1"/>
     <col min="10" max="41" width="3" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="2.7109375" customWidth="1"/>
+    <col min="42" max="42" width="3.42578125" customWidth="1"/>
     <col min="43" max="50" width="3" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="22.42578125" customWidth="1"/>
+    <col min="52" max="52" width="65" customWidth="1"/>
     <col min="53" max="53" width="25.85546875" customWidth="1"/>
     <col min="55" max="55" width="14.85546875" customWidth="1"/>
   </cols>
@@ -2725,78 +2628,78 @@
       </c>
     </row>
     <row r="2" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="8" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="9" t="s">
+      <c r="E2" s="11"/>
+      <c r="F2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="10" t="s">
+      <c r="G2" s="12"/>
+      <c r="H2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="13" t="s">
+      <c r="I2" s="13"/>
+      <c r="J2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="8" t="s">
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="9" t="s">
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="Z2" s="9"/>
-      <c r="AA2" s="9"/>
-      <c r="AB2" s="9"/>
-      <c r="AC2" s="9"/>
-      <c r="AD2" s="10" t="s">
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="12"/>
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="AE2" s="10"/>
-      <c r="AF2" s="11" t="s">
+      <c r="AE2" s="13"/>
+      <c r="AF2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="AG2" s="9"/>
-      <c r="AH2" s="9"/>
-      <c r="AI2" s="9"/>
-      <c r="AJ2" s="9"/>
-      <c r="AK2" s="9"/>
-      <c r="AL2" s="9"/>
-      <c r="AM2" s="9"/>
-      <c r="AN2" s="9"/>
-      <c r="AO2" s="9"/>
+      <c r="AG2" s="12"/>
+      <c r="AH2" s="12"/>
+      <c r="AI2" s="12"/>
+      <c r="AJ2" s="12"/>
+      <c r="AK2" s="12"/>
+      <c r="AL2" s="12"/>
+      <c r="AM2" s="12"/>
+      <c r="AN2" s="12"/>
+      <c r="AO2" s="12"/>
       <c r="AP2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AQ2" s="12" t="s">
+      <c r="AQ2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="AR2" s="13"/>
-      <c r="AS2" s="13"/>
-      <c r="AT2" s="13"/>
-      <c r="AU2" s="13"/>
-      <c r="AV2" s="13"/>
-      <c r="AW2" s="13"/>
-      <c r="AX2" s="13"/>
+      <c r="AR2" s="16"/>
+      <c r="AS2" s="16"/>
+      <c r="AT2" s="16"/>
+      <c r="AU2" s="16"/>
+      <c r="AV2" s="16"/>
+      <c r="AW2" s="16"/>
+      <c r="AX2" s="16"/>
     </row>
     <row r="3" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -2949,150 +2852,57 @@
       <c r="AX3">
         <v>50</v>
       </c>
-      <c r="BA3" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="4" spans="1:56" x14ac:dyDescent="0.25">
       <c r="L4" t="s">
         <v>11</v>
       </c>
       <c r="AZ4" t="s">
-        <v>14</v>
-      </c>
-      <c r="BA4">
-        <v>0.13</v>
-      </c>
-      <c r="BB4">
-        <f>AZ5*BA4</f>
-        <v>287.61061946902657</v>
-      </c>
-      <c r="BC4" t="s">
-        <v>15</v>
-      </c>
-      <c r="BD4" s="14">
-        <f>AZ5+BB4</f>
-        <v>2500</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="BD4" s="8"/>
     </row>
     <row r="5" spans="1:56" x14ac:dyDescent="0.25">
       <c r="L5" t="s">
         <v>12</v>
       </c>
-      <c r="AZ5" s="16">
-        <f>BC5/1.13</f>
-        <v>2212.3893805309735</v>
-      </c>
-      <c r="BA5">
-        <v>0.1150442</v>
-      </c>
-      <c r="BB5" s="14"/>
-      <c r="BC5" s="16">
-        <v>2500</v>
-      </c>
+      <c r="AZ5" s="10"/>
+      <c r="BB5" s="8"/>
+      <c r="BC5" s="10"/>
     </row>
     <row r="6" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="AZ6" s="15"/>
+      <c r="AZ6" s="9"/>
+    </row>
+    <row r="7" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>5.0614101800011104E+49</v>
+      </c>
     </row>
     <row r="9" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="AZ9" s="14"/>
-      <c r="BA9" s="14"/>
+      <c r="AZ9" s="8"/>
+      <c r="BA9" s="8"/>
     </row>
     <row r="10" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="AZ10" t="s">
-        <v>16</v>
-      </c>
-      <c r="BA10" s="16">
-        <v>0</v>
-      </c>
-      <c r="BB10" s="16"/>
-    </row>
-    <row r="11" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="AZ11" t="s">
-        <v>17</v>
-      </c>
-      <c r="BA11">
-        <v>0</v>
-      </c>
+      <c r="BA10" s="10"/>
+      <c r="BB10" s="10"/>
     </row>
     <row r="12" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="AZ12" t="s">
-        <v>18</v>
-      </c>
-      <c r="BA12" s="16">
-        <f>AZ5</f>
-        <v>2212.3893805309735</v>
-      </c>
-    </row>
-    <row r="13" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="AZ13" t="s">
-        <v>19</v>
-      </c>
-      <c r="BA13">
-        <v>0</v>
-      </c>
+      <c r="BA12" s="10"/>
     </row>
     <row r="14" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="AZ14" t="s">
-        <v>20</v>
-      </c>
-      <c r="BA14" s="16">
-        <f>BA10+BA12</f>
-        <v>2212.3893805309735</v>
-      </c>
+      <c r="BA14" s="10"/>
     </row>
     <row r="15" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="AZ15" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="BA15">
-        <f>BA11+BA13</f>
-        <v>0</v>
-      </c>
+      <c r="AZ15" s="8"/>
     </row>
     <row r="16" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="AZ16" t="s">
-        <v>22</v>
-      </c>
-      <c r="BA16" s="16">
-        <f>BA14+BA15</f>
-        <v>2212.3893805309735</v>
-      </c>
+      <c r="BA16" s="10"/>
     </row>
-    <row r="18" spans="52:53" x14ac:dyDescent="0.25">
-      <c r="AZ18" t="s">
-        <v>23</v>
-      </c>
-      <c r="BA18">
-        <v>0</v>
-      </c>
+    <row r="20" spans="53:53" x14ac:dyDescent="0.25">
+      <c r="BA20" s="10"/>
     </row>
-    <row r="20" spans="52:53" x14ac:dyDescent="0.25">
-      <c r="AZ20" t="s">
-        <v>24</v>
-      </c>
-      <c r="BA20" s="16">
-        <f>BA16-BA18</f>
-        <v>2212.3893805309735</v>
-      </c>
-    </row>
-    <row r="22" spans="52:53" x14ac:dyDescent="0.25">
-      <c r="AZ22" t="s">
-        <v>25</v>
-      </c>
-      <c r="BA22">
-        <f>BA20*0.13</f>
-        <v>287.61061946902657</v>
-      </c>
-    </row>
-    <row r="24" spans="52:53" x14ac:dyDescent="0.25">
-      <c r="AZ24" t="s">
-        <v>26</v>
-      </c>
-      <c r="BA24" s="16">
-        <f>BA20+BA22</f>
-        <v>2500</v>
-      </c>
+    <row r="24" spans="53:53" x14ac:dyDescent="0.25">
+      <c r="BA24" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/ATV/Clave_numerica.xlsx
+++ b/ATV/Clave_numerica.xlsx
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>pais</t>
   </si>
@@ -98,18 +98,44 @@
     <t>dar los doce digitos</t>
   </si>
   <si>
-    <t>"506 141018 000111870763 001 00001 01 0000000013 2 47317706"</t>
+    <t>MONTO TOTAL</t>
+  </si>
+  <si>
+    <t>CANT</t>
+  </si>
+  <si>
+    <t>PRECIO</t>
+  </si>
+  <si>
+    <t>UNITARIO</t>
+  </si>
+  <si>
+    <t>IV (MULTIPLICADO)</t>
+  </si>
+  <si>
+    <t>VI (RESTADO)</t>
+  </si>
+  <si>
+    <t>DESC</t>
+  </si>
+  <si>
+    <t>SUBTOTAL</t>
+  </si>
+  <si>
+    <t>TOTAL LINEA (M)</t>
+  </si>
+  <si>
+    <t>TOTAL LINEA (R)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.00000"/>
-    <numFmt numFmtId="165" formatCode="#,##0.00000"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,8 +178,15 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -180,8 +213,13 @@
         <fgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -213,15 +251,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
@@ -232,7 +286,8 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="5"/>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="3" xfId="5" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -252,9 +307,10 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Input" xfId="5" builtinId="20"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="4" builtinId="10"/>
@@ -287,6 +343,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -331,9 +388,6 @@
               <c:f>Sheet1!$AZ$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>"506 141018 000111870763 001 00001 01 0000000013 2 47317706"</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -376,9 +430,12 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AZ$5</c:f>
+              <c:f>Sheet1!#REF!</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>#REF!</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -403,10 +460,13 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$BA$5:$BD$5</c:f>
+              <c:f>Sheet1!#REF!</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -421,9 +481,12 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AZ$6</c:f>
+              <c:f>Sheet1!#REF!</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>#REF!</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -448,10 +511,13 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$BA$6:$BD$6</c:f>
+              <c:f>Sheet1!#REF!</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -591,6 +657,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -711,9 +778,6 @@
               <c:f>Sheet1!$AZ$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>"506 141018 000111870763 001 00001 01 0000000013 2 47317706"</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -756,9 +820,12 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AZ$5</c:f>
+              <c:f>Sheet1!#REF!</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>#REF!</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -783,10 +850,13 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$BA$5:$BD$5</c:f>
+              <c:f>Sheet1!#REF!</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -801,9 +871,12 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AZ$6</c:f>
+              <c:f>Sheet1!#REF!</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>#REF!</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -828,10 +901,13 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$BA$6:$BD$6</c:f>
+              <c:f>Sheet1!#REF!</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2457,25 +2533,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BD24"/>
+  <dimension ref="A1:BP22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AQ12" sqref="AQ12"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" customWidth="1"/>
-    <col min="2" max="9" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="2" bestFit="1" customWidth="1"/>
     <col min="10" max="41" width="3" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="3.42578125" customWidth="1"/>
     <col min="43" max="50" width="3" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="65" customWidth="1"/>
-    <col min="53" max="53" width="25.85546875" customWidth="1"/>
-    <col min="55" max="55" width="14.85546875" customWidth="1"/>
+    <col min="51" max="51" width="13.28515625" customWidth="1"/>
+    <col min="52" max="52" width="22.7109375" customWidth="1"/>
+    <col min="53" max="53" width="21.140625" customWidth="1"/>
+    <col min="54" max="54" width="16.140625" customWidth="1"/>
+    <col min="55" max="55" width="6.42578125" customWidth="1"/>
+    <col min="56" max="56" width="19" customWidth="1"/>
+    <col min="57" max="57" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="15.5703125" customWidth="1"/>
+    <col min="60" max="60" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A1" s="2">
         <v>5</v>
       </c>
@@ -2627,81 +2712,81 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="11" t="s">
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="12" t="s">
+      <c r="E2" s="12"/>
+      <c r="F2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="13" t="s">
+      <c r="G2" s="13"/>
+      <c r="H2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="13"/>
-      <c r="J2" s="16" t="s">
+      <c r="I2" s="14"/>
+      <c r="J2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="11" t="s">
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="12" t="s">
+      <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
+      <c r="Y2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="Z2" s="12"/>
-      <c r="AA2" s="12"/>
-      <c r="AB2" s="12"/>
-      <c r="AC2" s="12"/>
-      <c r="AD2" s="13" t="s">
+      <c r="Z2" s="13"/>
+      <c r="AA2" s="13"/>
+      <c r="AB2" s="13"/>
+      <c r="AC2" s="13"/>
+      <c r="AD2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="AE2" s="13"/>
-      <c r="AF2" s="14" t="s">
+      <c r="AE2" s="14"/>
+      <c r="AF2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="AG2" s="12"/>
-      <c r="AH2" s="12"/>
-      <c r="AI2" s="12"/>
-      <c r="AJ2" s="12"/>
-      <c r="AK2" s="12"/>
-      <c r="AL2" s="12"/>
-      <c r="AM2" s="12"/>
-      <c r="AN2" s="12"/>
-      <c r="AO2" s="12"/>
+      <c r="AG2" s="13"/>
+      <c r="AH2" s="13"/>
+      <c r="AI2" s="13"/>
+      <c r="AJ2" s="13"/>
+      <c r="AK2" s="13"/>
+      <c r="AL2" s="13"/>
+      <c r="AM2" s="13"/>
+      <c r="AN2" s="13"/>
+      <c r="AO2" s="13"/>
       <c r="AP2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AQ2" s="15" t="s">
+      <c r="AQ2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="AR2" s="16"/>
-      <c r="AS2" s="16"/>
-      <c r="AT2" s="16"/>
-      <c r="AU2" s="16"/>
-      <c r="AV2" s="16"/>
-      <c r="AW2" s="16"/>
-      <c r="AX2" s="16"/>
+      <c r="AR2" s="17"/>
+      <c r="AS2" s="17"/>
+      <c r="AT2" s="17"/>
+      <c r="AU2" s="17"/>
+      <c r="AV2" s="17"/>
+      <c r="AW2" s="17"/>
+      <c r="AX2" s="17"/>
     </row>
-    <row r="3" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2853,56 +2938,266 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:60" x14ac:dyDescent="0.25">
       <c r="L4" t="s">
         <v>11</v>
       </c>
-      <c r="AZ4" t="s">
-        <v>13</v>
-      </c>
       <c r="BD4" s="8"/>
     </row>
-    <row r="5" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:60" x14ac:dyDescent="0.25">
       <c r="L5" t="s">
         <v>12</v>
       </c>
-      <c r="AZ5" s="10"/>
-      <c r="BB5" s="8"/>
-      <c r="BC5" s="10"/>
+      <c r="AY5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AZ5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="BA5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="BB5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="BC5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="BD5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>17</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>18</v>
+      </c>
+      <c r="BG5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="BH5" s="9" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="6" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="AZ6" s="9"/>
+    <row r="6" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="AY6">
+        <v>1</v>
+      </c>
+      <c r="AZ6" s="9">
+        <v>10000</v>
+      </c>
+      <c r="BA6" s="9">
+        <f>AZ6/1.13</f>
+        <v>8849.5575221238942</v>
+      </c>
+      <c r="BB6" s="9">
+        <f>AY6*BA6</f>
+        <v>8849.5575221238942</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6" s="9">
+        <f>BB6-BC6</f>
+        <v>8849.5575221238942</v>
+      </c>
+      <c r="BE6" s="9">
+        <f>BD6*0.13</f>
+        <v>1150.4424778761063</v>
+      </c>
+      <c r="BF6" s="9">
+        <f>(AZ6*AY6)-(BA6*AY6)</f>
+        <v>1150.4424778761058</v>
+      </c>
+      <c r="BG6" s="9">
+        <f>BE6+BD6</f>
+        <v>10000</v>
+      </c>
+      <c r="BH6" s="9">
+        <f>BD6+BF6</f>
+        <v>10000</v>
+      </c>
     </row>
-    <row r="7" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="D7">
-        <v>5.0614101800011104E+49</v>
+    <row r="7" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="AY7">
+        <v>1</v>
+      </c>
+      <c r="AZ7" s="9">
+        <v>15000</v>
+      </c>
+      <c r="BA7" s="9">
+        <f>AZ7/1.13</f>
+        <v>13274.336283185841</v>
+      </c>
+      <c r="BB7" s="9">
+        <f>AY7*BA7</f>
+        <v>13274.336283185841</v>
+      </c>
+      <c r="BC7">
+        <v>0</v>
+      </c>
+      <c r="BD7" s="9">
+        <f>BB7-BC7</f>
+        <v>13274.336283185841</v>
+      </c>
+      <c r="BE7" s="9">
+        <f>BD7*0.13</f>
+        <v>1725.6637168141594</v>
+      </c>
+      <c r="BF7" s="9">
+        <f>(AZ7*AY7)-(BA7*AY7)</f>
+        <v>1725.6637168141588</v>
+      </c>
+      <c r="BG7" s="9">
+        <f>BE7+BD7</f>
+        <v>15000</v>
+      </c>
+      <c r="BH7" s="9">
+        <f>BD7+BF7</f>
+        <v>15000</v>
       </c>
     </row>
-    <row r="9" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="AZ9" s="8"/>
-      <c r="BA9" s="8"/>
+    <row r="8" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="AZ8" s="9"/>
+      <c r="BA8" s="9"/>
+      <c r="BB8" s="9"/>
+      <c r="BD8" s="9"/>
+      <c r="BE8" s="9"/>
+      <c r="BF8" s="9"/>
+      <c r="BG8" s="9"/>
+      <c r="BH8" s="9"/>
     </row>
-    <row r="10" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="BA10" s="10"/>
-      <c r="BB10" s="10"/>
+    <row r="9" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="AZ9" s="9"/>
+      <c r="BA9" s="9"/>
+      <c r="BB9" s="9"/>
+      <c r="BD9" s="9"/>
+      <c r="BE9" s="9"/>
+      <c r="BF9" s="9"/>
+      <c r="BG9" s="9"/>
+      <c r="BH9" s="9"/>
     </row>
-    <row r="12" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="BA12" s="10"/>
+    <row r="10" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="AZ10" s="9"/>
+      <c r="BA10" s="9"/>
+      <c r="BB10" s="9"/>
+      <c r="BD10" s="9"/>
+      <c r="BE10" s="9"/>
+      <c r="BF10" s="9"/>
+      <c r="BG10" s="9"/>
+      <c r="BH10" s="9"/>
     </row>
-    <row r="14" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="BA14" s="10"/>
+    <row r="11" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="AZ11" s="9"/>
+      <c r="BA11" s="9"/>
+      <c r="BB11" s="9"/>
+      <c r="BD11" s="9"/>
+      <c r="BE11" s="9"/>
+      <c r="BF11" s="9"/>
+      <c r="BG11" s="9"/>
+      <c r="BH11" s="9"/>
     </row>
-    <row r="15" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="AZ15" s="8"/>
+    <row r="12" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="AZ12" s="9"/>
+      <c r="BA12" s="9"/>
+      <c r="BB12" s="9"/>
+      <c r="BD12" s="9"/>
+      <c r="BE12" s="9"/>
+      <c r="BF12" s="9"/>
+      <c r="BG12" s="9"/>
+      <c r="BH12" s="9"/>
     </row>
-    <row r="16" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="BA16" s="10"/>
+    <row r="13" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="AZ13" s="9"/>
+      <c r="BA13" s="9"/>
+      <c r="BB13" s="9"/>
+      <c r="BD13" s="9"/>
+      <c r="BE13" s="9"/>
+      <c r="BF13" s="9"/>
+      <c r="BG13" s="9"/>
+      <c r="BH13" s="9"/>
     </row>
-    <row r="20" spans="53:53" x14ac:dyDescent="0.25">
-      <c r="BA20" s="10"/>
+    <row r="14" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="AZ14" s="9"/>
+      <c r="BA14" s="9"/>
+      <c r="BB14" s="9"/>
+      <c r="BD14" s="9"/>
+      <c r="BE14" s="9"/>
+      <c r="BF14" s="9"/>
+      <c r="BG14" s="9"/>
+      <c r="BH14" s="9"/>
     </row>
-    <row r="24" spans="53:53" x14ac:dyDescent="0.25">
-      <c r="BA24" s="10"/>
+    <row r="15" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="AZ15" s="9"/>
+      <c r="BA15" s="9"/>
+      <c r="BB15" s="9"/>
+      <c r="BD15" s="9"/>
+      <c r="BE15" s="9"/>
+      <c r="BF15" s="9"/>
+      <c r="BG15" s="9"/>
+      <c r="BH15" s="9"/>
+    </row>
+    <row r="16" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="AZ16" s="9"/>
+      <c r="BA16" s="9"/>
+      <c r="BB16" s="9"/>
+      <c r="BD16" s="9"/>
+      <c r="BE16" s="9"/>
+      <c r="BF16" s="9"/>
+      <c r="BG16" s="9"/>
+      <c r="BH16" s="9"/>
+    </row>
+    <row r="17" spans="51:68" x14ac:dyDescent="0.25">
+      <c r="AZ17" s="9"/>
+      <c r="BA17" s="9"/>
+      <c r="BD17" s="9"/>
+    </row>
+    <row r="18" spans="51:68" x14ac:dyDescent="0.25">
+      <c r="AZ18" s="9"/>
+      <c r="BA18" s="9"/>
+      <c r="BD18" s="9"/>
+    </row>
+    <row r="19" spans="51:68" x14ac:dyDescent="0.25">
+      <c r="AZ19" s="9"/>
+      <c r="BA19" s="9"/>
+      <c r="BD19" s="9"/>
+    </row>
+    <row r="20" spans="51:68" x14ac:dyDescent="0.25">
+      <c r="AY20" s="10"/>
+      <c r="AZ20" s="11"/>
+      <c r="BA20" s="11"/>
+      <c r="BB20" s="10"/>
+      <c r="BC20" s="10"/>
+      <c r="BD20" s="11">
+        <f>SUM(BD6:BD19)</f>
+        <v>22123.893805309737</v>
+      </c>
+      <c r="BE20" s="11">
+        <f t="shared" ref="BE20:BH20" si="0">SUM(BE6:BE19)</f>
+        <v>2876.1061946902655</v>
+      </c>
+      <c r="BF20" s="11">
+        <f t="shared" si="0"/>
+        <v>2876.1061946902646</v>
+      </c>
+      <c r="BG20" s="11">
+        <f t="shared" si="0"/>
+        <v>25000</v>
+      </c>
+      <c r="BH20" s="11">
+        <f t="shared" si="0"/>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="22" spans="51:68" x14ac:dyDescent="0.25">
+      <c r="BI22" s="9"/>
+      <c r="BJ22" s="9"/>
+      <c r="BK22" s="9"/>
+      <c r="BL22" s="9"/>
+      <c r="BM22" s="9"/>
+      <c r="BN22" s="9"/>
+      <c r="BO22" s="9"/>
+      <c r="BP22" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="10">
